--- a/BalanceSheet/CINF_bal.xlsx
+++ b/BalanceSheet/CINF_bal.xlsx
@@ -3440,7 +3440,7 @@
         <v>360000000.0</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>64000000.0</v>
+        <v>118000000.0</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>98000000.0</v>
@@ -3567,7 +3567,7 @@
         <v>846000000.0</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>831000000.0</v>
+        <v>885000000.0</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>885000000.0</v>
